--- a/Peaks-dataset-article/redes-ensemble-s/Teste02/content/results/metrics_24_7.xlsx
+++ b/Peaks-dataset-article/redes-ensemble-s/Teste02/content/results/metrics_24_7.xlsx
@@ -518,496 +518,496 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_24_7_18</t>
+          <t>model_24_7_0</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9895498310449997</v>
+        <v>0.9908867842581758</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7602301136046441</v>
+        <v>0.7699988645254097</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9221636794916088</v>
+        <v>0.9714448533143683</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8628663137908518</v>
+        <v>0.9924278480058663</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9201243809279718</v>
+        <v>0.9888848942364061</v>
       </c>
       <c r="G2" t="n">
-        <v>0.06988032792069038</v>
+        <v>0.06094011562807837</v>
       </c>
       <c r="H2" t="n">
-        <v>1.603342334364555</v>
+        <v>1.538018651976434</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1166561647906077</v>
+        <v>0.170848597822683</v>
       </c>
       <c r="J2" t="n">
-        <v>0.3042966323012786</v>
+        <v>0.02255657482784666</v>
       </c>
       <c r="K2" t="n">
-        <v>0.2104763847888329</v>
+        <v>0.09670258632507511</v>
       </c>
       <c r="L2" t="n">
-        <v>0.9092012018875092</v>
+        <v>0.2721279010257299</v>
       </c>
       <c r="M2" t="n">
-        <v>0.2643488753913857</v>
+        <v>0.2468605185688436</v>
       </c>
       <c r="N2" t="n">
-        <v>1.004400071138948</v>
+        <v>1.003837143470242</v>
       </c>
       <c r="O2" t="n">
-        <v>0.2756027542944073</v>
+        <v>0.2573698819160402</v>
       </c>
       <c r="P2" t="n">
-        <v>167.321942202203</v>
+        <v>167.5957272160356</v>
       </c>
       <c r="Q2" t="n">
-        <v>266.0508840165272</v>
+        <v>266.3246690303598</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_24_7_17</t>
+          <t>model_24_7_22</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.98941279147732</v>
+        <v>0.9908867842581758</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7602293339918391</v>
+        <v>0.7699988645254097</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9223787706629083</v>
+        <v>0.9714448533143683</v>
       </c>
       <c r="E3" t="n">
-        <v>0.861810091861186</v>
+        <v>0.9924278480058663</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9197408219122339</v>
+        <v>0.9888848942364061</v>
       </c>
       <c r="G3" t="n">
-        <v>0.07079671214077388</v>
+        <v>0.06094011562807837</v>
       </c>
       <c r="H3" t="n">
-        <v>1.603347547638972</v>
+        <v>1.538018651976434</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1163337997178471</v>
+        <v>0.170848597822683</v>
       </c>
       <c r="J3" t="n">
-        <v>0.3066403655228147</v>
+        <v>0.02255657482784666</v>
       </c>
       <c r="K3" t="n">
-        <v>0.2114870826203309</v>
+        <v>0.09670258632507511</v>
       </c>
       <c r="L3" t="n">
-        <v>0.908211591393161</v>
+        <v>0.2721279010257299</v>
       </c>
       <c r="M3" t="n">
-        <v>0.2660765155754523</v>
+        <v>0.2468605185688436</v>
       </c>
       <c r="N3" t="n">
-        <v>1.00445777200955</v>
+        <v>1.003837143470242</v>
       </c>
       <c r="O3" t="n">
-        <v>0.2774039436978177</v>
+        <v>0.2573698819160402</v>
       </c>
       <c r="P3" t="n">
-        <v>167.2958854361008</v>
+        <v>167.5957272160356</v>
       </c>
       <c r="Q3" t="n">
-        <v>266.0248272504251</v>
+        <v>266.3246690303598</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_24_7_19</t>
+          <t>model_24_7_21</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9896628540844635</v>
+        <v>0.9908867842581758</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7602203468766517</v>
+        <v>0.7699988645254097</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9219462950525448</v>
+        <v>0.9714448533143683</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8637890013392443</v>
+        <v>0.9924278480058663</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9204510251236685</v>
+        <v>0.9888848942364061</v>
       </c>
       <c r="G4" t="n">
-        <v>0.06912454233537271</v>
+        <v>0.06094011562807837</v>
       </c>
       <c r="H4" t="n">
-        <v>1.603407644519611</v>
+        <v>1.538018651976434</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1169819668683618</v>
+        <v>0.170848597822683</v>
       </c>
       <c r="J4" t="n">
-        <v>0.3022492089335879</v>
+        <v>0.02255657482784666</v>
       </c>
       <c r="K4" t="n">
-        <v>0.2096156604499016</v>
+        <v>0.09670258632507511</v>
       </c>
       <c r="L4" t="n">
-        <v>0.9100692919810486</v>
+        <v>0.2721279010257299</v>
       </c>
       <c r="M4" t="n">
-        <v>0.2629154661395421</v>
+        <v>0.2468605185688436</v>
       </c>
       <c r="N4" t="n">
-        <v>1.004352482490752</v>
+        <v>1.003837143470242</v>
       </c>
       <c r="O4" t="n">
-        <v>0.2741083218431465</v>
+        <v>0.2573698819160402</v>
       </c>
       <c r="P4" t="n">
-        <v>167.343690879976</v>
+        <v>167.5957272160356</v>
       </c>
       <c r="Q4" t="n">
-        <v>266.0726326943002</v>
+        <v>266.3246690303598</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_24_7_16</t>
+          <t>model_24_7_20</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9892465045769283</v>
+        <v>0.9908867842581758</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7602141839689693</v>
+        <v>0.7699988645254097</v>
       </c>
       <c r="D5" t="n">
-        <v>0.922584514576498</v>
+        <v>0.9714448533143683</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8606010049501164</v>
+        <v>0.9924278480058663</v>
       </c>
       <c r="F5" t="n">
-        <v>0.919290226143928</v>
+        <v>0.9888848942364061</v>
       </c>
       <c r="G5" t="n">
-        <v>0.07190867340937424</v>
+        <v>0.06094011562807837</v>
       </c>
       <c r="H5" t="n">
-        <v>1.603448855911661</v>
+        <v>1.538018651976434</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1160254437250197</v>
+        <v>0.170848597822683</v>
       </c>
       <c r="J5" t="n">
-        <v>0.3093233027745477</v>
+        <v>0.02255657482784666</v>
       </c>
       <c r="K5" t="n">
-        <v>0.212674425759777</v>
+        <v>0.09670258632507511</v>
       </c>
       <c r="L5" t="n">
-        <v>0.907070687843705</v>
+        <v>0.2721279010257299</v>
       </c>
       <c r="M5" t="n">
-        <v>0.2681579262475272</v>
+        <v>0.2468605185688436</v>
       </c>
       <c r="N5" t="n">
-        <v>1.004527787546557</v>
+        <v>1.003837143470242</v>
       </c>
       <c r="O5" t="n">
-        <v>0.279573964331317</v>
+        <v>0.2573698819160402</v>
       </c>
       <c r="P5" t="n">
-        <v>167.2647167799352</v>
+        <v>167.5957272160356</v>
       </c>
       <c r="Q5" t="n">
-        <v>265.9936585942594</v>
+        <v>266.3246690303598</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_24_7_20</t>
+          <t>model_24_7_19</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9897562456991987</v>
+        <v>0.9908867842581758</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7602030791318835</v>
+        <v>0.7699988645254097</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9217309981603347</v>
+        <v>0.9714448533143683</v>
       </c>
       <c r="E6" t="n">
-        <v>0.864597687410934</v>
+        <v>0.9924278480058663</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9207302671642245</v>
+        <v>0.9888848942364061</v>
       </c>
       <c r="G6" t="n">
-        <v>0.06850003217760969</v>
+        <v>0.06094011562807837</v>
       </c>
       <c r="H6" t="n">
-        <v>1.603523114008388</v>
+        <v>1.538018651976434</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1173046402626401</v>
+        <v>0.170848597822683</v>
       </c>
       <c r="J6" t="n">
-        <v>0.3004547523342896</v>
+        <v>0.02255657482784666</v>
       </c>
       <c r="K6" t="n">
-        <v>0.208879843239843</v>
+        <v>0.09670258632507511</v>
       </c>
       <c r="L6" t="n">
-        <v>0.9108330499011139</v>
+        <v>0.2721279010257299</v>
       </c>
       <c r="M6" t="n">
-        <v>0.2617251080382043</v>
+        <v>0.2468605185688436</v>
       </c>
       <c r="N6" t="n">
-        <v>1.004313159705601</v>
+        <v>1.003837143470242</v>
       </c>
       <c r="O6" t="n">
-        <v>0.2728672877330537</v>
+        <v>0.2573698819160402</v>
       </c>
       <c r="P6" t="n">
-        <v>167.3618421279359</v>
+        <v>167.5957272160356</v>
       </c>
       <c r="Q6" t="n">
-        <v>266.0907839422601</v>
+        <v>266.3246690303598</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_24_7_21</t>
+          <t>model_24_7_18</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9898335629118227</v>
+        <v>0.9908867842581758</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7601806992599081</v>
+        <v>0.7699988645254097</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9215221640661467</v>
+        <v>0.9714448533143683</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8653074473339943</v>
+        <v>0.9924278480058663</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9209697728282205</v>
+        <v>0.9888848942364061</v>
       </c>
       <c r="G7" t="n">
-        <v>0.06798301162078042</v>
+        <v>0.06094011562807837</v>
       </c>
       <c r="H7" t="n">
-        <v>1.603672768315338</v>
+        <v>1.538018651976434</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1176176276231213</v>
+        <v>0.170848597822683</v>
       </c>
       <c r="J7" t="n">
-        <v>0.2988798106820955</v>
+        <v>0.02255657482784666</v>
       </c>
       <c r="K7" t="n">
-        <v>0.2082487334358756</v>
+        <v>0.09670258632507511</v>
       </c>
       <c r="L7" t="n">
-        <v>0.9115042844992027</v>
+        <v>0.2721279010257299</v>
       </c>
       <c r="M7" t="n">
-        <v>0.2607355204431886</v>
+        <v>0.2468605185688436</v>
       </c>
       <c r="N7" t="n">
-        <v>1.004280605089759</v>
+        <v>1.003837143470242</v>
       </c>
       <c r="O7" t="n">
-        <v>0.2718355713453895</v>
+        <v>0.2573698819160402</v>
       </c>
       <c r="P7" t="n">
-        <v>167.3769948682494</v>
+        <v>167.5957272160356</v>
       </c>
       <c r="Q7" t="n">
-        <v>266.1059366825736</v>
+        <v>266.3246690303598</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_24_7_15</t>
+          <t>model_24_7_17</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9890443094746182</v>
+        <v>0.9908867842581758</v>
       </c>
       <c r="C8" t="n">
-        <v>0.76017959746027</v>
+        <v>0.7699988645254097</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9227732629618997</v>
+        <v>0.9714448533143683</v>
       </c>
       <c r="E8" t="n">
-        <v>0.8592109309629234</v>
+        <v>0.9924278480058663</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9187586323202976</v>
+        <v>0.9888848942364061</v>
       </c>
       <c r="G8" t="n">
-        <v>0.07326075298954465</v>
+        <v>0.06094011562807837</v>
       </c>
       <c r="H8" t="n">
-        <v>1.60368013605459</v>
+        <v>1.538018651976434</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1157425595572231</v>
+        <v>0.170848597822683</v>
       </c>
       <c r="J8" t="n">
-        <v>0.3124078463658817</v>
+        <v>0.02255657482784666</v>
       </c>
       <c r="K8" t="n">
-        <v>0.2140752029615524</v>
+        <v>0.09670258632507511</v>
       </c>
       <c r="L8" t="n">
-        <v>0.9057634821102576</v>
+        <v>0.2721279010257299</v>
       </c>
       <c r="M8" t="n">
-        <v>0.2706672366385423</v>
+        <v>0.2468605185688436</v>
       </c>
       <c r="N8" t="n">
-        <v>1.004612922326477</v>
+        <v>1.003837143470242</v>
       </c>
       <c r="O8" t="n">
-        <v>0.2821901012606662</v>
+        <v>0.2573698819160402</v>
       </c>
       <c r="P8" t="n">
-        <v>167.2274604867335</v>
+        <v>167.5957272160356</v>
       </c>
       <c r="Q8" t="n">
-        <v>265.9564023010577</v>
+        <v>266.3246690303598</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_24_7_22</t>
+          <t>model_24_7_16</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9898976984878536</v>
+        <v>0.9908867842581758</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7601549908362765</v>
+        <v>0.7699988645254097</v>
       </c>
       <c r="D9" t="n">
-        <v>0.921321080264401</v>
+        <v>0.9714448533143683</v>
       </c>
       <c r="E9" t="n">
-        <v>0.8659322484231686</v>
+        <v>0.9924278480058663</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9211757213021616</v>
+        <v>0.9888848942364061</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0675541367285442</v>
+        <v>0.06094011562807837</v>
       </c>
       <c r="H9" t="n">
-        <v>1.603844680662538</v>
+        <v>1.538018651976434</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1179189993344247</v>
+        <v>0.170848597822683</v>
       </c>
       <c r="J9" t="n">
-        <v>0.2974933908129181</v>
+        <v>0.02255657482784666</v>
       </c>
       <c r="K9" t="n">
-        <v>0.2077060485621744</v>
+        <v>0.09670258632507511</v>
       </c>
       <c r="L9" t="n">
-        <v>0.9120951510025848</v>
+        <v>0.2721279010257299</v>
       </c>
       <c r="M9" t="n">
-        <v>0.259911786436368</v>
+        <v>0.2468605185688436</v>
       </c>
       <c r="N9" t="n">
-        <v>1.004253600636693</v>
+        <v>1.003837143470242</v>
       </c>
       <c r="O9" t="n">
-        <v>0.2709767692765342</v>
+        <v>0.2573698819160402</v>
       </c>
       <c r="P9" t="n">
-        <v>167.3896519538925</v>
+        <v>167.5957272160356</v>
       </c>
       <c r="Q9" t="n">
-        <v>266.1185937682168</v>
+        <v>266.3246690303598</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_24_7_23</t>
+          <t>model_24_7_15</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9899509686055034</v>
+        <v>0.9908867842581758</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7601273656000525</v>
+        <v>0.7699988645254097</v>
       </c>
       <c r="D10" t="n">
-        <v>0.921129505268675</v>
+        <v>0.9714448533143683</v>
       </c>
       <c r="E10" t="n">
-        <v>0.8664826318689682</v>
+        <v>0.9924278480058663</v>
       </c>
       <c r="F10" t="n">
-        <v>0.92135294032014</v>
+        <v>0.9888848942364061</v>
       </c>
       <c r="G10" t="n">
-        <v>0.06719791920653406</v>
+        <v>0.06094011562807837</v>
       </c>
       <c r="H10" t="n">
-        <v>1.604029410744371</v>
+        <v>1.538018651976434</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1182061198473831</v>
+        <v>0.170848597822683</v>
       </c>
       <c r="J10" t="n">
-        <v>0.2962721020569538</v>
+        <v>0.02255657482784666</v>
       </c>
       <c r="K10" t="n">
-        <v>0.2072390672898754</v>
+        <v>0.09670258632507511</v>
       </c>
       <c r="L10" t="n">
-        <v>0.9126156123976343</v>
+        <v>0.2721279010257299</v>
       </c>
       <c r="M10" t="n">
-        <v>0.2592256144877162</v>
+        <v>0.2468605185688436</v>
       </c>
       <c r="N10" t="n">
-        <v>1.004231171113472</v>
+        <v>1.003837143470242</v>
       </c>
       <c r="O10" t="n">
-        <v>0.2702613855674565</v>
+        <v>0.2573698819160402</v>
       </c>
       <c r="P10" t="n">
-        <v>167.4002259922418</v>
+        <v>167.5957272160356</v>
       </c>
       <c r="Q10" t="n">
-        <v>266.129167806566</v>
+        <v>266.3246690303598</v>
       </c>
     </row>
     <row r="11">
@@ -1017,162 +1017,162 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9887981637739973</v>
+        <v>0.9908867842581758</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7601192943723338</v>
+        <v>0.7699988645254097</v>
       </c>
       <c r="D11" t="n">
-        <v>0.922933324123047</v>
+        <v>0.9714448533143683</v>
       </c>
       <c r="E11" t="n">
-        <v>0.8576096250214355</v>
+        <v>0.9924278480058663</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9181299065862214</v>
+        <v>0.9888848942364061</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0749067304229932</v>
+        <v>0.06094011562807837</v>
       </c>
       <c r="H11" t="n">
-        <v>1.604083383081289</v>
+        <v>1.538018651976434</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1155026699906374</v>
+        <v>0.170848597822683</v>
       </c>
       <c r="J11" t="n">
-        <v>0.3159611090159913</v>
+        <v>0.02255657482784666</v>
       </c>
       <c r="K11" t="n">
-        <v>0.2157319277678132</v>
+        <v>0.09670258632507511</v>
       </c>
       <c r="L11" t="n">
-        <v>0.90426426165567</v>
+        <v>0.2721279010257299</v>
       </c>
       <c r="M11" t="n">
-        <v>0.273690939607056</v>
+        <v>0.2468605185688436</v>
       </c>
       <c r="N11" t="n">
-        <v>1.004716562621475</v>
+        <v>1.003837143470242</v>
       </c>
       <c r="O11" t="n">
-        <v>0.2853425295244776</v>
+        <v>0.2573698819160402</v>
       </c>
       <c r="P11" t="n">
-        <v>167.1830230674221</v>
+        <v>167.5957272160356</v>
       </c>
       <c r="Q11" t="n">
-        <v>265.9119648817464</v>
+        <v>266.3246690303598</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_24_7_24</t>
+          <t>model_24_7_13</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9899953551250087</v>
+        <v>0.9908867842581758</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7600988651681373</v>
+        <v>0.7699988645254097</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9209495011227886</v>
+        <v>0.9714448533143683</v>
       </c>
       <c r="E12" t="n">
-        <v>0.8669685812110841</v>
+        <v>0.9924278480058663</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9215062900277896</v>
+        <v>0.9888848942364061</v>
       </c>
       <c r="G12" t="n">
-        <v>0.06690110634622042</v>
+        <v>0.06094011562807837</v>
       </c>
       <c r="H12" t="n">
-        <v>1.604219993263819</v>
+        <v>1.538018651976434</v>
       </c>
       <c r="I12" t="n">
-        <v>0.1184758987008587</v>
+        <v>0.170848597822683</v>
       </c>
       <c r="J12" t="n">
-        <v>0.295193791159299</v>
+        <v>0.02255657482784666</v>
       </c>
       <c r="K12" t="n">
-        <v>0.2068349828840269</v>
+        <v>0.09670258632507511</v>
       </c>
       <c r="L12" t="n">
-        <v>0.9139083699745854</v>
+        <v>0.2721279010257299</v>
       </c>
       <c r="M12" t="n">
-        <v>0.2586524818095129</v>
+        <v>0.2468605185688436</v>
       </c>
       <c r="N12" t="n">
-        <v>1.004212482052628</v>
+        <v>1.003837143470242</v>
       </c>
       <c r="O12" t="n">
-        <v>0.2696638534445939</v>
+        <v>0.2573698819160402</v>
       </c>
       <c r="P12" t="n">
-        <v>167.409079549344</v>
+        <v>167.5957272160356</v>
       </c>
       <c r="Q12" t="n">
-        <v>266.1380213636682</v>
+        <v>266.3246690303598</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_24_7_13</t>
+          <t>model_24_7_23</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.988498118604314</v>
+        <v>0.9908867842581758</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7600252215762267</v>
+        <v>0.7699988645254097</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9230489269277831</v>
+        <v>0.9714448533143683</v>
       </c>
       <c r="E13" t="n">
-        <v>0.8557605418582591</v>
+        <v>0.9924278480058663</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9173842446918179</v>
+        <v>0.9888848942364061</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0769131338542465</v>
+        <v>0.06094011562807837</v>
       </c>
       <c r="H13" t="n">
-        <v>1.604712448302024</v>
+        <v>1.538018651976434</v>
       </c>
       <c r="I13" t="n">
-        <v>0.1153294118027958</v>
+        <v>0.170848597822683</v>
       </c>
       <c r="J13" t="n">
-        <v>0.3200641838691051</v>
+        <v>0.02255657482784666</v>
       </c>
       <c r="K13" t="n">
-        <v>0.2176967854006201</v>
+        <v>0.09670258632507511</v>
       </c>
       <c r="L13" t="n">
-        <v>0.9025333092122326</v>
+        <v>0.2721279010257299</v>
       </c>
       <c r="M13" t="n">
-        <v>0.2773321724110755</v>
+        <v>0.2468605185688436</v>
       </c>
       <c r="N13" t="n">
-        <v>1.004842897429763</v>
+        <v>1.003837143470242</v>
       </c>
       <c r="O13" t="n">
-        <v>0.2891387771473552</v>
+        <v>0.2573698819160402</v>
       </c>
       <c r="P13" t="n">
-        <v>167.1301572514222</v>
+        <v>167.5957272160356</v>
       </c>
       <c r="Q13" t="n">
-        <v>265.8590990657465</v>
+        <v>266.3246690303598</v>
       </c>
     </row>
     <row r="14">
@@ -1182,712 +1182,712 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9881319666520648</v>
+        <v>0.9908867842581758</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7598872428724776</v>
+        <v>0.7699988645254097</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9231013381978057</v>
+        <v>0.9714448533143683</v>
       </c>
       <c r="E14" t="n">
-        <v>0.8536192497459877</v>
+        <v>0.9924278480058663</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9164975153246286</v>
+        <v>0.9888848942364061</v>
       </c>
       <c r="G14" t="n">
-        <v>0.07936159364491163</v>
+        <v>0.06094011562807837</v>
       </c>
       <c r="H14" t="n">
-        <v>1.605635112529328</v>
+        <v>1.538018651976434</v>
       </c>
       <c r="I14" t="n">
-        <v>0.1152508610990534</v>
+        <v>0.170848597822683</v>
       </c>
       <c r="J14" t="n">
-        <v>0.3248156639506931</v>
+        <v>0.02255657482784666</v>
       </c>
       <c r="K14" t="n">
-        <v>0.220033363115577</v>
+        <v>0.09670258632507511</v>
       </c>
       <c r="L14" t="n">
-        <v>0.9005343230742582</v>
+        <v>0.2721279010257299</v>
       </c>
       <c r="M14" t="n">
-        <v>0.2817118983019916</v>
+        <v>0.2468605185688436</v>
       </c>
       <c r="N14" t="n">
-        <v>1.004997066672815</v>
+        <v>1.003837143470242</v>
       </c>
       <c r="O14" t="n">
-        <v>0.29370495703673</v>
+        <v>0.2573698819160402</v>
       </c>
       <c r="P14" t="n">
-        <v>167.0674814699921</v>
+        <v>167.5957272160356</v>
       </c>
       <c r="Q14" t="n">
-        <v>265.7964232843163</v>
+        <v>266.3246690303598</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_24_7_11</t>
+          <t>model_24_7_10</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9876846538626798</v>
+        <v>0.9908867842581758</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7596926580938763</v>
+        <v>0.7699988645254097</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9230651406797236</v>
+        <v>0.9714448533143683</v>
       </c>
       <c r="E15" t="n">
-        <v>0.8511333831059499</v>
+        <v>0.9924278480058663</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9154405848707547</v>
+        <v>0.9888848942364061</v>
       </c>
       <c r="G15" t="n">
-        <v>0.08235277632721492</v>
+        <v>0.06094011562807837</v>
       </c>
       <c r="H15" t="n">
-        <v>1.606936301839814</v>
+        <v>1.538018651976434</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1153051116546657</v>
+        <v>0.170848597822683</v>
       </c>
       <c r="J15" t="n">
-        <v>0.3303317473276097</v>
+        <v>0.02255657482784666</v>
       </c>
       <c r="K15" t="n">
-        <v>0.2228184294911377</v>
+        <v>0.09670258632507511</v>
       </c>
       <c r="L15" t="n">
-        <v>0.8982136609821133</v>
+        <v>0.2721279010257299</v>
       </c>
       <c r="M15" t="n">
-        <v>0.2869717343698068</v>
+        <v>0.2468605185688436</v>
       </c>
       <c r="N15" t="n">
-        <v>1.005185408899924</v>
+        <v>1.003837143470242</v>
       </c>
       <c r="O15" t="n">
-        <v>0.2991887152153138</v>
+        <v>0.2573698819160402</v>
       </c>
       <c r="P15" t="n">
-        <v>166.9934862183559</v>
+        <v>167.5957272160356</v>
       </c>
       <c r="Q15" t="n">
-        <v>265.7224280326802</v>
+        <v>266.3246690303598</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_24_7_10</t>
+          <t>model_24_7_9</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9871376855971743</v>
+        <v>0.9908867842581758</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7594253279636933</v>
+        <v>0.7699988645254097</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9229079676244296</v>
+        <v>0.9714448533143683</v>
       </c>
       <c r="E16" t="n">
-        <v>0.8482398715309767</v>
+        <v>0.9924278480058663</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9141775651209743</v>
+        <v>0.9888848942364061</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0860103556372076</v>
+        <v>0.06094011562807837</v>
       </c>
       <c r="H16" t="n">
-        <v>1.60872393965129</v>
+        <v>1.538018651976434</v>
       </c>
       <c r="I16" t="n">
-        <v>0.1155406727104718</v>
+        <v>0.170848597822683</v>
       </c>
       <c r="J16" t="n">
-        <v>0.3367523858456049</v>
+        <v>0.02255657482784666</v>
       </c>
       <c r="K16" t="n">
-        <v>0.2261465518135571</v>
+        <v>0.09670258632507511</v>
       </c>
       <c r="L16" t="n">
-        <v>0.8955204295052916</v>
+        <v>0.2721279010257299</v>
       </c>
       <c r="M16" t="n">
-        <v>0.293275221655713</v>
+        <v>0.2468605185688436</v>
       </c>
       <c r="N16" t="n">
-        <v>1.005415711327506</v>
+        <v>1.003837143470242</v>
       </c>
       <c r="O16" t="n">
-        <v>0.3057605550049986</v>
+        <v>0.2573698819160402</v>
       </c>
       <c r="P16" t="n">
-        <v>166.9065751511835</v>
+        <v>167.5957272160356</v>
       </c>
       <c r="Q16" t="n">
-        <v>265.6355169655077</v>
+        <v>266.3246690303598</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_24_7_9</t>
+          <t>model_24_7_8</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9864681891809648</v>
+        <v>0.9908867842581758</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7590650523377129</v>
+        <v>0.7699988645254097</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9225888365052387</v>
+        <v>0.9714448533143683</v>
       </c>
       <c r="E17" t="n">
-        <v>0.8448620142211638</v>
+        <v>0.9924278480058663</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9126645366676281</v>
+        <v>0.9888848942364061</v>
       </c>
       <c r="G17" t="n">
-        <v>0.09048728125514781</v>
+        <v>0.06094011562807837</v>
       </c>
       <c r="H17" t="n">
-        <v>1.611133104421138</v>
+        <v>1.538018651976434</v>
       </c>
       <c r="I17" t="n">
-        <v>0.1160189662909877</v>
+        <v>0.170848597822683</v>
       </c>
       <c r="J17" t="n">
-        <v>0.3442477768919935</v>
+        <v>0.02255657482784666</v>
       </c>
       <c r="K17" t="n">
-        <v>0.230133459992081</v>
+        <v>0.09670258632507511</v>
       </c>
       <c r="L17" t="n">
-        <v>0.8923708245764753</v>
+        <v>0.2721279010257299</v>
       </c>
       <c r="M17" t="n">
-        <v>0.3008110391178286</v>
+        <v>0.2468605185688436</v>
       </c>
       <c r="N17" t="n">
-        <v>1.005697604555383</v>
+        <v>1.003837143470242</v>
       </c>
       <c r="O17" t="n">
-        <v>0.3136171878177691</v>
+        <v>0.2573698819160402</v>
       </c>
       <c r="P17" t="n">
-        <v>166.8050919535398</v>
+        <v>167.5957272160356</v>
       </c>
       <c r="Q17" t="n">
-        <v>265.534033767864</v>
+        <v>266.3246690303598</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_24_7_8</t>
+          <t>model_24_7_7</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9856479949793882</v>
+        <v>0.9908867842581758</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7585865455339267</v>
+        <v>0.7699988645254097</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9220544002409758</v>
+        <v>0.9714448533143683</v>
       </c>
       <c r="E18" t="n">
-        <v>0.8409077384742268</v>
+        <v>0.9924278480058663</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9108476746584678</v>
+        <v>0.9888848942364061</v>
       </c>
       <c r="G18" t="n">
-        <v>0.09597192365773827</v>
+        <v>0.06094011562807837</v>
       </c>
       <c r="H18" t="n">
-        <v>1.614332881621378</v>
+        <v>1.538018651976434</v>
       </c>
       <c r="I18" t="n">
-        <v>0.1168199456346504</v>
+        <v>0.170848597822683</v>
       </c>
       <c r="J18" t="n">
-        <v>0.3530222277672392</v>
+        <v>0.02255657482784666</v>
       </c>
       <c r="K18" t="n">
-        <v>0.2349209852944313</v>
+        <v>0.09670258632507511</v>
       </c>
       <c r="L18" t="n">
-        <v>0.8886856506950754</v>
+        <v>0.2721279010257299</v>
       </c>
       <c r="M18" t="n">
-        <v>0.3097933563808918</v>
+        <v>0.2468605185688436</v>
       </c>
       <c r="N18" t="n">
-        <v>1.006042949482363</v>
+        <v>1.003837143470242</v>
       </c>
       <c r="O18" t="n">
-        <v>0.322981900922681</v>
+        <v>0.2573698819160402</v>
       </c>
       <c r="P18" t="n">
-        <v>166.6873991843764</v>
+        <v>167.5957272160356</v>
       </c>
       <c r="Q18" t="n">
-        <v>265.4163409987006</v>
+        <v>266.3246690303598</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_24_7_7</t>
+          <t>model_24_7_6</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.984642376938317</v>
+        <v>0.9908867842581758</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7579579606273856</v>
+        <v>0.7699988645254097</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9212366515573795</v>
+        <v>0.9714448533143683</v>
       </c>
       <c r="E19" t="n">
-        <v>0.8362656758129361</v>
+        <v>0.9924278480058663</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9086605027771337</v>
+        <v>0.9888848942364061</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1026964961288258</v>
+        <v>0.06094011562807837</v>
       </c>
       <c r="H19" t="n">
-        <v>1.618536231785785</v>
+        <v>1.538018651976434</v>
       </c>
       <c r="I19" t="n">
-        <v>0.1180455357520638</v>
+        <v>0.170848597822683</v>
       </c>
       <c r="J19" t="n">
-        <v>0.3633228626718383</v>
+        <v>0.02255657482784666</v>
       </c>
       <c r="K19" t="n">
-        <v>0.2406842962501795</v>
+        <v>0.09670258632507511</v>
       </c>
       <c r="L19" t="n">
-        <v>0.8843583442773146</v>
+        <v>0.2721279010257299</v>
       </c>
       <c r="M19" t="n">
-        <v>0.3204629403360485</v>
+        <v>0.2468605185688436</v>
       </c>
       <c r="N19" t="n">
-        <v>1.006466367604919</v>
+        <v>1.003837143470242</v>
       </c>
       <c r="O19" t="n">
-        <v>0.3341057111558923</v>
+        <v>0.2573698819160402</v>
       </c>
       <c r="P19" t="n">
-        <v>166.5519545603357</v>
+        <v>167.5957272160356</v>
       </c>
       <c r="Q19" t="n">
-        <v>265.28089637466</v>
+        <v>266.3246690303598</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_24_7_6</t>
+          <t>model_24_7_5</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9834085090013173</v>
+        <v>0.9908867842581758</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7571395010786099</v>
+        <v>0.7699988645254097</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9200495751649371</v>
+        <v>0.9714448533143683</v>
       </c>
       <c r="E20" t="n">
-        <v>0.8308021111539601</v>
+        <v>0.9924278480058663</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9060225183056837</v>
+        <v>0.9888848942364061</v>
       </c>
       <c r="G20" t="n">
-        <v>0.1109473767049829</v>
+        <v>0.06094011562807837</v>
       </c>
       <c r="H20" t="n">
-        <v>1.624009274557107</v>
+        <v>1.538018651976434</v>
       </c>
       <c r="I20" t="n">
-        <v>0.1198246509305732</v>
+        <v>0.170848597822683</v>
       </c>
       <c r="J20" t="n">
-        <v>0.3754463924335268</v>
+        <v>0.02255657482784666</v>
       </c>
       <c r="K20" t="n">
-        <v>0.2476355216820501</v>
+        <v>0.09670258632507511</v>
       </c>
       <c r="L20" t="n">
-        <v>0.879266877858112</v>
+        <v>0.2721279010257299</v>
       </c>
       <c r="M20" t="n">
-        <v>0.3330876411771877</v>
+        <v>0.2468605185688436</v>
       </c>
       <c r="N20" t="n">
-        <v>1.006985890946814</v>
+        <v>1.003837143470242</v>
       </c>
       <c r="O20" t="n">
-        <v>0.3472678716485723</v>
+        <v>0.2573698819160402</v>
       </c>
       <c r="P20" t="n">
-        <v>166.3973985476438</v>
+        <v>167.5957272160356</v>
       </c>
       <c r="Q20" t="n">
-        <v>265.1263403619681</v>
+        <v>266.3246690303598</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_24_7_5</t>
+          <t>model_24_7_4</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9818933781425668</v>
+        <v>0.9908867842581758</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7560812064677573</v>
+        <v>0.7699988645254097</v>
       </c>
       <c r="D21" t="n">
-        <v>0.918381160136705</v>
+        <v>0.9714448533143683</v>
       </c>
       <c r="E21" t="n">
-        <v>0.824353693438357</v>
+        <v>0.9924278480058663</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9028329544243184</v>
+        <v>0.9888848942364061</v>
       </c>
       <c r="G21" t="n">
-        <v>0.1210790637339828</v>
+        <v>0.06094011562807837</v>
       </c>
       <c r="H21" t="n">
-        <v>1.631086095492877</v>
+        <v>1.538018651976434</v>
       </c>
       <c r="I21" t="n">
-        <v>0.1223251660782747</v>
+        <v>0.170848597822683</v>
       </c>
       <c r="J21" t="n">
-        <v>0.3897552894578312</v>
+        <v>0.02255657482784666</v>
       </c>
       <c r="K21" t="n">
-        <v>0.2560401873685523</v>
+        <v>0.09670258632507511</v>
       </c>
       <c r="L21" t="n">
-        <v>0.8732419276638594</v>
+        <v>0.2721279010257299</v>
       </c>
       <c r="M21" t="n">
-        <v>0.3479641701870795</v>
+        <v>0.2468605185688436</v>
       </c>
       <c r="N21" t="n">
-        <v>1.007623840782077</v>
+        <v>1.003837143470242</v>
       </c>
       <c r="O21" t="n">
-        <v>0.3627777252970756</v>
+        <v>0.2573698819160402</v>
       </c>
       <c r="P21" t="n">
-        <v>166.2226230549634</v>
+        <v>167.5957272160356</v>
       </c>
       <c r="Q21" t="n">
-        <v>264.9515648692877</v>
+        <v>266.3246690303598</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_24_7_4</t>
+          <t>model_24_7_3</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9800315496920938</v>
+        <v>0.9908867842581758</v>
       </c>
       <c r="C22" t="n">
-        <v>0.75472029695079</v>
+        <v>0.7699988645254097</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9160900618198444</v>
+        <v>0.9714448533143683</v>
       </c>
       <c r="E22" t="n">
-        <v>0.8167217913653859</v>
+        <v>0.9924278480058663</v>
       </c>
       <c r="F22" t="n">
-        <v>0.8989679719585131</v>
+        <v>0.9888848942364061</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1335291191552277</v>
+        <v>0.06094011562807837</v>
       </c>
       <c r="H22" t="n">
-        <v>1.64018650369925</v>
+        <v>1.538018651976434</v>
       </c>
       <c r="I22" t="n">
-        <v>0.1257589196403326</v>
+        <v>0.170848597822683</v>
       </c>
       <c r="J22" t="n">
-        <v>0.4066903122305457</v>
+        <v>0.02255657482784666</v>
       </c>
       <c r="K22" t="n">
-        <v>0.2662246159354392</v>
+        <v>0.09670258632507511</v>
       </c>
       <c r="L22" t="n">
-        <v>0.8660961196250762</v>
+        <v>0.2721279010257299</v>
       </c>
       <c r="M22" t="n">
-        <v>0.3654163641043293</v>
+        <v>0.2468605185688436</v>
       </c>
       <c r="N22" t="n">
-        <v>1.008407768550697</v>
+        <v>1.003837143470242</v>
       </c>
       <c r="O22" t="n">
-        <v>0.3809728952404045</v>
+        <v>0.2573698819160402</v>
       </c>
       <c r="P22" t="n">
-        <v>166.0268714078276</v>
+        <v>167.5957272160356</v>
       </c>
       <c r="Q22" t="n">
-        <v>264.7558132221519</v>
+        <v>266.3246690303598</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_24_7_3</t>
+          <t>model_24_7_2</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9777418973366997</v>
+        <v>0.9908867842581758</v>
       </c>
       <c r="C23" t="n">
-        <v>0.7529779187351665</v>
+        <v>0.7699988645254097</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9129900884404838</v>
+        <v>0.9714448533143683</v>
       </c>
       <c r="E23" t="n">
-        <v>0.8076659894943078</v>
+        <v>0.9924278480058663</v>
       </c>
       <c r="F23" t="n">
-        <v>0.894273442873399</v>
+        <v>0.9888848942364061</v>
       </c>
       <c r="G23" t="n">
-        <v>0.1488400349986278</v>
+        <v>0.06094011562807837</v>
       </c>
       <c r="H23" t="n">
-        <v>1.651837794850039</v>
+        <v>1.538018651976434</v>
       </c>
       <c r="I23" t="n">
-        <v>0.1304049640965349</v>
+        <v>0.170848597822683</v>
       </c>
       <c r="J23" t="n">
-        <v>0.4267849373247325</v>
+        <v>0.02255657482784666</v>
       </c>
       <c r="K23" t="n">
-        <v>0.2785949427210109</v>
+        <v>0.09670258632507511</v>
       </c>
       <c r="L23" t="n">
-        <v>0.8575836318521556</v>
+        <v>0.2721279010257299</v>
       </c>
       <c r="M23" t="n">
-        <v>0.3857979198993014</v>
+        <v>0.2468605185688436</v>
       </c>
       <c r="N23" t="n">
-        <v>1.009371832700337</v>
+        <v>1.003837143470242</v>
       </c>
       <c r="O23" t="n">
-        <v>0.4022221360612054</v>
+        <v>0.2573698819160402</v>
       </c>
       <c r="P23" t="n">
-        <v>165.8097662807222</v>
+        <v>167.5957272160356</v>
       </c>
       <c r="Q23" t="n">
-        <v>264.5387080950464</v>
+        <v>266.3246690303598</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_24_7_2</t>
+          <t>model_24_7_1</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9749239082545765</v>
+        <v>0.9908867842581758</v>
       </c>
       <c r="C24" t="n">
-        <v>0.7507547149027526</v>
+        <v>0.7699988645254097</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9088414589587404</v>
+        <v>0.9714448533143683</v>
       </c>
       <c r="E24" t="n">
-        <v>0.796892640922233</v>
+        <v>0.9924278480058663</v>
       </c>
       <c r="F24" t="n">
-        <v>0.888557496462858</v>
+        <v>0.9888848942364061</v>
       </c>
       <c r="G24" t="n">
-        <v>0.1676839409664324</v>
+        <v>0.06094011562807837</v>
       </c>
       <c r="H24" t="n">
-        <v>1.666704369114303</v>
+        <v>1.538018651976434</v>
       </c>
       <c r="I24" t="n">
-        <v>0.1366226681364535</v>
+        <v>0.170848597822683</v>
       </c>
       <c r="J24" t="n">
-        <v>0.4506907607566957</v>
+        <v>0.02255657482784666</v>
       </c>
       <c r="K24" t="n">
-        <v>0.2936567569531173</v>
+        <v>0.09670258632507511</v>
       </c>
       <c r="L24" t="n">
-        <v>0.8474033651576921</v>
+        <v>0.2721279010257299</v>
       </c>
       <c r="M24" t="n">
-        <v>0.4094922965898533</v>
+        <v>0.2468605185688436</v>
       </c>
       <c r="N24" t="n">
-        <v>1.010558354419126</v>
+        <v>1.003837143470242</v>
       </c>
       <c r="O24" t="n">
-        <v>0.4269252314215957</v>
+        <v>0.2573698819160402</v>
       </c>
       <c r="P24" t="n">
-        <v>165.5713487504494</v>
+        <v>167.5957272160356</v>
       </c>
       <c r="Q24" t="n">
-        <v>264.3002905647736</v>
+        <v>266.3246690303598</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_24_7_1</t>
+          <t>model_24_7_11</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9714525004850478</v>
+        <v>0.9908867842581758</v>
       </c>
       <c r="C25" t="n">
-        <v>0.7479248882754401</v>
+        <v>0.7699988645254097</v>
       </c>
       <c r="D25" t="n">
-        <v>0.903324918381239</v>
+        <v>0.9714448533143683</v>
       </c>
       <c r="E25" t="n">
-        <v>0.784042605674365</v>
+        <v>0.9924278480058663</v>
       </c>
       <c r="F25" t="n">
-        <v>0.8815781889018979</v>
+        <v>0.9888848942364061</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1908972607056338</v>
+        <v>0.06094011562807837</v>
       </c>
       <c r="H25" t="n">
-        <v>1.685627432801295</v>
+        <v>1.538018651976434</v>
       </c>
       <c r="I25" t="n">
-        <v>0.1448905109954143</v>
+        <v>0.170848597822683</v>
       </c>
       <c r="J25" t="n">
-        <v>0.479204706228236</v>
+        <v>0.02255657482784666</v>
       </c>
       <c r="K25" t="n">
-        <v>0.3120475931159719</v>
+        <v>0.09670258632507511</v>
       </c>
       <c r="L25" t="n">
-        <v>0.8351728792132181</v>
+        <v>0.2721279010257299</v>
       </c>
       <c r="M25" t="n">
-        <v>0.4369179107173723</v>
+        <v>0.2468605185688436</v>
       </c>
       <c r="N25" t="n">
-        <v>1.012019999795769</v>
+        <v>1.003837143470242</v>
       </c>
       <c r="O25" t="n">
-        <v>0.455518410721371</v>
+        <v>0.2573698819160402</v>
       </c>
       <c r="P25" t="n">
-        <v>165.3120397954429</v>
+        <v>167.5957272160356</v>
       </c>
       <c r="Q25" t="n">
-        <v>264.0409816097672</v>
+        <v>266.3246690303598</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>model_24_7_0</t>
+          <t>model_24_7_24</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9671719192433365</v>
+        <v>0.9908867842581758</v>
       </c>
       <c r="C26" t="n">
-        <v>0.7443286512867496</v>
+        <v>0.7699988645254097</v>
       </c>
       <c r="D26" t="n">
-        <v>0.8960164414397658</v>
+        <v>0.9714448533143683</v>
       </c>
       <c r="E26" t="n">
-        <v>0.768676909141861</v>
+        <v>0.9924278480058663</v>
       </c>
       <c r="F26" t="n">
-        <v>0.8730300306798524</v>
+        <v>0.9888848942364061</v>
       </c>
       <c r="G26" t="n">
-        <v>0.2195215271792217</v>
+        <v>0.06094011562807837</v>
       </c>
       <c r="H26" t="n">
-        <v>1.709675486103817</v>
+        <v>1.538018651976434</v>
       </c>
       <c r="I26" t="n">
-        <v>0.1558439949844339</v>
+        <v>0.170848597822683</v>
       </c>
       <c r="J26" t="n">
-        <v>0.5133008487374751</v>
+        <v>0.02255657482784666</v>
       </c>
       <c r="K26" t="n">
-        <v>0.3345724318600276</v>
+        <v>0.09670258632507511</v>
       </c>
       <c r="L26" t="n">
-        <v>0.8204219227346787</v>
+        <v>0.2721279010257299</v>
       </c>
       <c r="M26" t="n">
-        <v>0.4685312446136561</v>
+        <v>0.2468605185688436</v>
       </c>
       <c r="N26" t="n">
-        <v>1.013822349792279</v>
+        <v>1.003837143470242</v>
       </c>
       <c r="O26" t="n">
-        <v>0.4884775896902424</v>
+        <v>0.2573698819160402</v>
       </c>
       <c r="P26" t="n">
-        <v>165.0326099551328</v>
+        <v>167.5957272160356</v>
       </c>
       <c r="Q26" t="n">
-        <v>263.761551769457</v>
+        <v>266.3246690303598</v>
       </c>
     </row>
   </sheetData>
